--- a/Project 3/Template.xlsx
+++ b/Project 3/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Add_Items_to_Queue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Indeed\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC71DDA6-76B2-4EFB-8335-B392466BC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730A0411-938C-4553-B162-61C294F8B87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>JobTitle</t>
   </si>
@@ -36,22 +36,7 @@
     <t>Engineer</t>
   </si>
   <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Programmer</t>
-  </si>
-  <si>
-    <t>Java Automation</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t>Uipath</t>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -369,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +379,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -402,47 +387,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Project 3/Template.xlsx
+++ b/Project 3/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Indeed\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730A0411-938C-4553-B162-61C294F8B87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE186394-1DB0-4A8C-AFD1-81E010CA4192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="144" windowWidth="22224" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>JobTitle</t>
-  </si>
-  <si>
-    <t>Number_of_Job_search</t>
   </si>
   <si>
     <t>Engineer</t>
   </si>
   <si>
-    <t>Developer</t>
+    <t>Number_Of_Job_Search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +74,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,41 +362,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>26</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project 3/Template.xlsx
+++ b/Project 3/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Indeed\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P3_C_Reed\Full Project\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE186394-1DB0-4A8C-AFD1-81E010CA4192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0205863-3570-493A-B1A0-2DBD572F8693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="144" windowWidth="22224" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>JobTitle</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Number_Of_Job_Search</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,10 +391,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project 3/Template.xlsx
+++ b/Project 3/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P3_C_Reed\Full Project\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Indeed\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0205863-3570-493A-B1A0-2DBD572F8693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7F25F-D631-4DB4-96D5-8422B19FEDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24960" yWindow="1008" windowWidth="17148" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>JobTitle</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Number_Of_Job_Search</t>
-  </si>
-  <si>
-    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -365,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,14 +393,6 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project 3/Template.xlsx
+++ b/Project 3/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Indeed\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7F25F-D631-4DB4-96D5-8422B19FEDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579C373-6826-4A0F-A9FB-6DCC721D6F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24960" yWindow="1008" windowWidth="17148" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="660" windowWidth="17148" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>JobTitle</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Number_Of_Job_Search</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,6 +396,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project 3/Template.xlsx
+++ b/Project 3/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Indeed\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579C373-6826-4A0F-A9FB-6DCC721D6F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D660CBD5-C15E-40E3-85E9-F18DF2EAD350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="660" windowWidth="17148" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25560" yWindow="576" windowWidth="17148" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -401,7 +401,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Project 3/Template.xlsx
+++ b/Project 3/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Indeed\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D660CBD5-C15E-40E3-85E9-F18DF2EAD350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7627FD-9334-4360-B4A7-8EA103CB71A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25560" yWindow="576" windowWidth="17148" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="876" windowWidth="17148" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>JobTitle</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Number_Of_Job_Search</t>
-  </si>
-  <si>
-    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -365,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,14 +393,6 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
